--- a/biology/Botanique/Coleus_verschaffeltii/Coleus_verschaffeltii.xlsx
+++ b/biology/Botanique/Coleus_verschaffeltii/Coleus_verschaffeltii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Solenostemon scutellarioides, Coleus blumei · Plectranthe fausse-scutellaire
 Plectranthus scutellarioides, la Plectranthe fausse-scutellaire, est une espèce de plantes de la famille des Lamiacées. C'est une plante ornementale originaire de Java. Les horticulteurs ont créé au cours du temps de très nombreuses variétés, hybrides et cultivars, si bien que la classification de ces « coléus » a été fréquemment révisée et fait encore parfois débat.
@@ -512,11 +524,13 @@
           <t>Dénominations</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Nom scientifique valide : Plectranthus scutellarioides  (L.) R.Br., 1810[2]
-Noms vulgaires (vulgarisation scientifique) recommandés ou typiques en français : Plectranthe fausse-scutellaire[3]
-Autres noms vulgaires ou noms vernaculaires (langage courant) pouvant désigner éventuellement d'autres espèces : coléus[4],[5],[6], au Québec : ortie flamboyante[5] et tapis monseigneur[5], à La Réunion : vieux garçon[7] et ortie d'appartement[7] et aussi coliole[8] ou encore plante anti-pisse[8].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Nom scientifique valide : Plectranthus scutellarioides  (L.) R.Br., 1810
+Noms vulgaires (vulgarisation scientifique) recommandés ou typiques en français : Plectranthe fausse-scutellaire
+Autres noms vulgaires ou noms vernaculaires (langage courant) pouvant désigner éventuellement d'autres espèces : coléus au Québec : ortie flamboyante et tapis monseigneur, à La Réunion : vieux garçon et ortie d'appartement et aussi coliole ou encore plante anti-pisse.</t>
         </is>
       </c>
     </row>
@@ -544,7 +558,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Planche botanique
@@ -588,12 +604,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Décoratif
-Cette plante est appréciée comme plante ornementale.
-Hallucinogène
-Les Mazatèques de l'Oaxaca l'utilisent pour ses propriétés psychotomimétiques et la désigne par le terme « El nene » (l'enfant) ou « El ahijado » (le filleul)[9].
-Médicinal
-En Nouvelle-Calédonie, cette plante est utilisée dans la pharmacopée traditionnelle kanak[10].
+          <t>Décoratif</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette plante est appréciée comme plante ornementale.
 </t>
         </is>
       </c>
@@ -619,14 +636,125 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Usages</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Hallucinogène</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Mazatèques de l'Oaxaca l'utilisent pour ses propriétés psychotomimétiques et la désigne par le terme « El nene » (l'enfant) ou « El ahijado » (le filleul).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Coleus_verschaffeltii</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Coleus_verschaffeltii</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Usages</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Médicinal</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En Nouvelle-Calédonie, cette plante est utilisée dans la pharmacopée traditionnelle kanak.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Coleus_verschaffeltii</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Coleus_verschaffeltii</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Classification</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite pour la première fois en 1763 par le naturaliste suédois Carl von Linné (1707-1778) sous le nom de Ocimum scutellarioides (basionyme)[1].
-Noms scientifiques synonymes
-Coleus scutellarioides a pour synonymes[11] :
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite pour la première fois en 1763 par le naturaliste suédois Carl von Linné (1707-1778) sous le nom de Ocimum scutellarioides (basionyme).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Coleus_verschaffeltii</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Coleus_verschaffeltii</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Noms scientifiques synonymes</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Coleus scutellarioides a pour synonymes :
 Calchas acuminatus (Benth.) P.V.Heath
 Calchas atropurpureus (Benth.) P.V.Heath
 Calchas crispipilus (Merr.) P.V.Heath
